--- a/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo_else.xlsx
+++ b/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo_else.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
   <si>
     <t>Activity</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Else block executed</t>
   </si>
   <si>
-    <t>False if condition there is some error</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Inside nested condition 1</t>
   </si>
   <si>
@@ -274,6 +271,15 @@
   </si>
   <si>
     <t>Nested condition 1 exited</t>
+  </si>
+  <si>
+    <t>nested if executed inside false statement!!!</t>
+  </si>
+  <si>
+    <t>parent if is false and nested endif is used for parent, error!!!</t>
+  </si>
+  <si>
+    <t>if condition true</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -814,7 +820,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -853,34 +865,28 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -889,70 +895,73 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -965,6 +974,9 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -990,7 +1002,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1004,25 +1016,34 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1031,46 +1052,125 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1084,7 +1184,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo_else.xlsx
+++ b/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo_else.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="3195" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="6060" yWindow="3195" windowWidth="24240" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
   <si>
     <t>Activity</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>if condition true</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+  </si>
+  <si>
+    <t>UseCount</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -1181,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1196,7 +1202,7 @@
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1221,8 +1227,11 @@
       <c r="H1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1245,7 +1254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1439,15 +1448,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1463,8 +1472,11 @@
       <c r="E1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1611,7 +1623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>52</v>
       </c>
